--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -3,33 +3,183 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="16920" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="23">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -37,15 +187,201 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -69,26 +405,316 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,7 +1067,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -453,51 +1078,51 @@
   </sheetPr>
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A158" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -535,7 +1160,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -573,7 +1198,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +1236,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -649,7 +1274,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -687,7 +1312,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -725,7 +1350,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,7 +1388,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -801,7 +1426,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,7 +1464,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -877,7 +1502,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -915,7 +1540,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -953,7 +1578,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -991,7 +1616,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1029,7 +1654,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1067,7 +1692,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1105,7 +1730,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1143,7 +1768,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1181,7 +1806,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1219,7 +1844,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1257,7 +1882,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1295,7 +1920,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1333,7 +1958,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1371,7 +1996,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1409,7 +2034,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1447,7 +2072,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1485,7 +2110,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1523,7 +2148,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1561,7 +2186,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1599,7 +2224,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1637,7 +2262,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1675,7 +2300,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1713,7 +2338,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1751,7 +2376,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1789,7 +2414,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1827,7 +2452,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1865,7 +2490,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1903,7 +2528,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1941,7 +2566,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1979,7 +2604,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2017,7 +2642,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2055,7 +2680,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2093,7 +2718,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2131,7 +2756,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2169,7 +2794,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2207,7 +2832,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2245,7 +2870,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2283,7 +2908,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2321,7 +2946,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2359,7 +2984,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2397,7 +3022,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2435,7 +3060,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2473,7 +3098,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2511,7 +3136,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2549,7 +3174,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2587,7 +3212,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2625,7 +3250,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2663,7 +3288,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -2701,7 +3326,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2739,7 +3364,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -2777,7 +3402,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,7 +3440,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2853,7 +3478,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2891,7 +3516,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2929,7 +3554,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2967,7 +3592,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3005,7 +3630,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -3043,7 +3668,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -3081,7 +3706,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -3119,7 +3744,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -3157,7 +3782,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -3195,7 +3820,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -3233,7 +3858,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -3271,7 +3896,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -3309,7 +3934,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -3347,7 +3972,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -3385,7 +4010,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -3423,7 +4048,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -3461,7 +4086,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -3499,7 +4124,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -3537,7 +4162,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -3575,7 +4200,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -3613,7 +4238,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -3651,7 +4276,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -3689,7 +4314,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -3727,7 +4352,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -3765,7 +4390,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -3803,7 +4428,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -3841,7 +4466,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -3879,7 +4504,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -3917,7 +4542,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -3955,7 +4580,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -3993,7 +4618,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -4031,7 +4656,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -4069,7 +4694,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -4107,7 +4732,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -4145,7 +4770,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -4183,7 +4808,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -4221,7 +4846,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -4259,7 +4884,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -4297,7 +4922,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -4335,7 +4960,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -4373,7 +4998,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -4411,7 +5036,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -4449,7 +5074,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -4487,7 +5112,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -4525,7 +5150,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -4563,7 +5188,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -4601,7 +5226,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -4639,7 +5264,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -4677,7 +5302,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -4715,7 +5340,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -4753,7 +5378,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -4791,7 +5416,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -4829,7 +5454,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -4867,7 +5492,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -4905,7 +5530,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -4943,7 +5568,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -4981,7 +5606,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -5019,7 +5644,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -5057,7 +5682,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -5095,7 +5720,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -5133,7 +5758,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -5171,7 +5796,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -5209,7 +5834,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -5247,7 +5872,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -5285,7 +5910,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -5323,7 +5948,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -5361,7 +5986,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -5399,7 +6024,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -5437,7 +6062,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -5475,7 +6100,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -5513,7 +6138,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -5551,7 +6176,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -5589,7 +6214,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -5627,7 +6252,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -5665,7 +6290,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -5703,7 +6328,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -5741,7 +6366,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -5779,7 +6404,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -5815,7 +6440,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -5863,6 +6488,1924 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>115.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3132</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1423</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8398</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3891</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1498</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9368</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7896</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7679</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5964</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -5922,22 +8465,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>124.04</t>
+          <t>131.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.7371</t>
+          <t>9.7149</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5960,26 +8503,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.89</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.1806</t>
+          <t>6.5003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5988,32 +8531,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161024</t>
+          <t>160630</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>鹏华中证国防指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.92</t>
+          <t>64.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.8182</t>
+          <t>5.8301</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6026,32 +8569,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160630</t>
+          <t>161024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证国防指数（LOF）</t>
+          <t>富国中证军工指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.54</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.8104</t>
+          <t>5.3882</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -6074,26 +8617,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.66</t>
+          <t>58.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>99.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.7609</t>
+          <t>4.6191</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6102,36 +8645,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005609</t>
+          <t>512680</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国军工主题混合A</t>
+          <t>广发中证军工ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>115.02</t>
+          <t>57.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>99.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.3132</t>
+          <t>4.2410</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6140,36 +8683,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512680</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证军工ETF</t>
+          <t>华夏军工安全灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46.03</t>
+          <t>49.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.29</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.5397</t>
+          <t>3.7158</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -6178,36 +8721,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏军工安全灵活配置混合</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>79.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>80.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.7651</t>
+          <t>3.3526</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -6216,36 +8759,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>62.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.1423</t>
+          <t>2.8386</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -6264,22 +8807,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27.46</t>
+          <t>33.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.8398</t>
+          <t>2.6984</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -6292,36 +8835,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000596</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源中证军工指数A</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.24</t>
+          <t>35.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3891</t>
+          <t>2.4991</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -6330,36 +8873,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>164402</t>
+          <t>011531</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源中航军工指数</t>
+          <t>朱雀恒心一年持有期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>81.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>46.62</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.3440</t>
+          <t>2.1906</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -6378,22 +8921,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.1498</t>
+          <t>1.9446</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -6406,36 +8949,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512670</t>
+          <t>164402</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华中证国防ETF</t>
+          <t>前海开源中航军工指数</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>26.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>97.80</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.1414</t>
+          <t>1.7860</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -6444,36 +8987,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>163115</t>
+          <t>000596</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数A</t>
+          <t>前海开源中证军工指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>24.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.9368</t>
+          <t>1.5294</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -6482,36 +9025,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>512670</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>鹏华中证国防ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>13.93</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.9123</t>
+          <t>1.3011</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -6520,36 +9063,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>163115</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>申万菱信中证军工指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.7896</t>
+          <t>1.0017</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -6558,36 +9101,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501019</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰国证航天军工指数（LOF）</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>80.22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.7679</t>
+          <t>0.9943</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -6596,36 +9139,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002199</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源中证军工指数C</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.5964</t>
+          <t>0.9672</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -6634,36 +9177,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>501019</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>国泰国证航天军工指数（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.5556</t>
+          <t>0.9491</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -6672,36 +9215,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>502003</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达军工指数（LOF）A</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>25.67</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>80.27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.4634</t>
+          <t>0.9421</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -6710,36 +9253,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>502003</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>易方达军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.4192</t>
+          <t>0.8726</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -6748,36 +9291,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010364</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华中证空天一体军工指数（LOF）C</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.3974</t>
+          <t>0.8510</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -6786,36 +9329,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>010364</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.3771</t>
+          <t>0.8081</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -6824,36 +9367,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>512560</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达中证军工ETF</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.3388</t>
+          <t>0.7163</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -6862,36 +9405,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>002199</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>前海开源中证军工指数C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.2989</t>
+          <t>0.6610</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -6900,36 +9443,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2922</t>
+          <t>0.4341</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -6938,32 +9481,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>85.77</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.2279</t>
+          <t>0.4135</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -6976,36 +9519,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>98.26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.1936</t>
+          <t>0.3756</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -7014,36 +9557,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>512810</t>
+          <t>005774</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华宝兴业中证军工ETF</t>
+          <t>华夏产业升级混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1688</t>
+          <t>0.3548</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -7052,36 +9595,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>121002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>国投瑞银景气行业混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>68.40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1675</t>
+          <t>0.3188</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -7100,26 +9643,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1560</t>
+          <t>0.2108</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -7128,36 +9671,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>020022</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国泰策略价值灵活配置混合</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1370</t>
+          <t>0.2021</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -7166,36 +9709,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001924</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华夏国企改革灵活配置混合</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1296</t>
+          <t>0.1879</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -7204,36 +9747,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>512810</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>华宝兴业中证军工ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1092</t>
+          <t>0.1808</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -7242,36 +9785,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>87.54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.1024</t>
+          <t>0.1280</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -7280,36 +9823,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.1207</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -7318,36 +9861,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0657</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -7356,36 +9899,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>008056</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>南方上证50指数增强A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -7394,32 +9937,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>020022</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>国泰策略价值灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>79.03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0626</t>
+          <t>0.0920</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -7432,36 +9975,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>011148</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合C</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0694</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -7470,36 +10013,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002885</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>85.77</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0693</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -7508,36 +10051,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -7546,36 +10089,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>007137</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>鹏扬元合量化大盘优选股票A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -7584,36 +10127,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006535</t>
+          <t>008057</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恒生前海恒锦裕利混合A</t>
+          <t>南方上证50指数增强C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -7622,32 +10165,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>006536</t>
+          <t>620001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恒生前海恒锦裕利混合C</t>
+          <t>金元顺安宝石动力混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>54.90</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -7660,36 +10203,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>88.20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -7698,36 +10241,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>005382</t>
+          <t>007138</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合C</t>
+          <t>鹏扬元合量化大盘优选股票C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -7736,36 +10279,490 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>79.93</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>0.0006</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>4</v>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -10768,4 +10769,3512 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7501</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0552</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0203</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5847</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3647</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2933</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2508</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0723</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0312</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9733</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7706</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6542</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6108</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5253</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4787</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4529</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -14277,4 +14278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>141</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -14286,7 +14287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14297,17 +14298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14317,14 +14338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D2" t="n">
-        <v>73.38</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14333,14 +14376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.52</v>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -14349,14 +14414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.91</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -14365,13 +14452,6073 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8787</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9557</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8115</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6842</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6624</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5953</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5629</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5419</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>57.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4729</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4571</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3831</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3784</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3583</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3195</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2951</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2404</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1910</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0996</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0811</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0152</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0141</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8818</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8536</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8480</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7833</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>36.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7667</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7636</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7616</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7448</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6941</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6418</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6117</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5652</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5496</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>48.86</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>160</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>141</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>80.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -20417,7 +20418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20428,17 +20429,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20448,14 +20469,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>160</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.55</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -20464,14 +20507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>91</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.38</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -20480,14 +20545,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.52</v>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -20496,14 +20583,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58.91</v>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -20512,13 +20621,4307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9201</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4993</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4313</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3632</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1757</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1614</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1161</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9790</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8777</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7633</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7633</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7023</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6325</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6196</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5943</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4170</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>55.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>160</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>141</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>80.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -24804,7 +24805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24815,17 +24816,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24835,14 +24856,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>114</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66.12</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -24851,14 +24894,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>160</v>
-      </c>
-      <c r="D3" t="n">
-        <v>98.55</v>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -24867,14 +24932,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.38</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -24883,14 +24970,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.52</v>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -24899,14 +25008,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>58.91</v>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -24915,13 +25046,3975 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8975</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7421</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6539</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5855</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5566</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4479</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4392</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1071</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0990</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0420</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8560</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8331</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7935</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7502</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7401</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6601</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4733</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>106</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>114</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>141</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>80.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600893-航发动力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1081,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,14 +1113,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D2" t="n">
-        <v>62.05</v>
+        <v>56.55</v>
       </c>
     </row>
     <row r="3">
@@ -1128,14 +1129,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>66.12</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="4">
@@ -1144,14 +1145,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>98.55</v>
+        <v>66.12</v>
       </c>
     </row>
     <row r="5">
@@ -1160,14 +1161,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D5" t="n">
-        <v>73.38</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="6">
@@ -1176,14 +1177,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>72.52</v>
+        <v>73.38</v>
       </c>
     </row>
     <row r="7">
@@ -1192,14 +1193,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>58.91</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="8">
@@ -1208,13 +1209,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>141</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>80.45</v>
       </c>
     </row>
@@ -1224,6 +1241,4502 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3365</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7831</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4512</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9511</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8696</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8239</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7149</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安核心混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6302</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6239</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012188</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4966</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014539</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012189</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014540</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012213</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012212</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>53.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>016293</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华安核心混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5299,7 +9812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9685,7 +14198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15815,7 +20328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19323,7 +23836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21695,7 +26208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23613,7 +28126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
